--- a/DONE/PAJENAGO, FRANCIS.xlsx
+++ b/DONE/PAJENAGO, FRANCIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -629,9 +629,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -641,17 +638,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,27 +856,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1097,27 +1097,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1180,25 +1180,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K105" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K105" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1210,25 +1210,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1542,9 +1542,9 @@
   <dimension ref="A2:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,62 +1566,62 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1654,18 +1654,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1722,7 +1722,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3134,15 +3134,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>44986</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -3567,19 +3571,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -3588,7 +3592,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3596,8 +3600,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                           OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3637,62 +3641,62 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3725,18 +3729,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DONE/PAJENAGO, FRANCIS.xlsx
+++ b/DONE/PAJENAGO, FRANCIS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>CSWDO</t>
+  </si>
+  <si>
+    <t>4/25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -632,17 +638,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -652,6 +655,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1541,9 +1547,9 @@
   </sheetPr>
   <dimension ref="A2:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A71"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
@@ -1574,14 +1580,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1593,14 +1599,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1614,14 +1620,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1654,18 +1662,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3571,17 +3579,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3616,10 +3624,10 @@
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="C12" sqref="C12:C109"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,14 +3657,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3668,14 +3676,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3689,14 +3697,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3729,18 +3737,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3787,7 +3795,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.975000000000001</v>
+        <v>25.975000000000001</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4539,7 +4547,9 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="50" t="s">
+        <v>65</v>
+      </c>
       <c r="B43" s="21"/>
       <c r="C43" s="14"/>
       <c r="D43" s="41"/>
@@ -4555,10 +4565,16 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="42">
+        <v>45017</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="41">
+        <v>2</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="21"/>
       <c r="G44" s="14" t="str">
@@ -4568,7 +4584,9 @@
       <c r="H44" s="41"/>
       <c r="I44" s="10"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="K44" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
